--- a/output/laptops_vergleich.xlsx
+++ b/output/laptops_vergleich.xlsx
@@ -434,7 +434,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="32" customWidth="1" min="2" max="2"/>
+    <col width="50" customWidth="1" min="2" max="2"/>
     <col width="11" customWidth="1" min="3" max="3"/>
     <col width="15" customWidth="1" min="4" max="4"/>
     <col width="10" customWidth="1" min="5" max="5"/>
@@ -553,7 +553,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>images/Dell_Latitude_3550/...</t>
+          <t>images/Dell Latitude 3550 - Leistungsstarker Laptop mit Intel Core i5/Dell Latitude 3550 - Leistungsstarker Laptop mit Intel Core i5_page1_img1.png</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -623,7 +623,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>images/Dell_Precision_5550/...</t>
+          <t>images/Dell Precision 5550 - i9 10885H 2,4 GHz - grau (32 GB RAM _ 1 TB SSD _/Dell Precision 5550 - i9 10885H 2,4 GHz - grau (32 GB RAM _ 1 TB SSD __page1_img1.png</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -697,7 +697,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>images/Dell_Precision_3561/...</t>
+          <t>images/Dell Precision 5550 - i9 10885H 2,4 GHz - grau (32 GB RAM _ 1 TB SSD _/Dell Precision 5550 - i9 10885H 2,4 GHz - grau (32 GB RAM _ 1 TB SSD __page1_img1.png</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -747,7 +747,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>images/Dell_Precision_7560/...</t>
+          <t>images/Dell Precision 5550 - i9 10885H 2,4 GHz - grau (32 GB RAM _ 1 TB SSD _/Dell Precision 5550 - i9 10885H 2,4 GHz - grau (32 GB RAM _ 1 TB SSD __page1_img1.png</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -821,7 +821,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>images/Dell_Precision_7550/...</t>
+          <t>images/Dell Precision 5550 - i9 10885H 2,4 GHz - grau (32 GB RAM _ 1 TB SSD _/Dell Precision 5550 - i9 10885H 2,4 GHz - grau (32 GB RAM _ 1 TB SSD __page1_img1.png</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -895,7 +895,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>images/Dell_Latitude_5501/...</t>
+          <t>images/Dell Latitude 3550 - Leistungsstarker Laptop mit Intel Core i5/Dell Latitude 3550 - Leistungsstarker Laptop mit Intel Core i5_page1_img1.png</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -969,7 +969,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>images/Dell_Precision_7540/...</t>
+          <t>images/Dell Precision 5550 - i9 10885H 2,4 GHz - grau (32 GB RAM _ 1 TB SSD _/Dell Precision 5550 - i9 10885H 2,4 GHz - grau (32 GB RAM _ 1 TB SSD __page1_img1.png</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>images/Dell_Precision_5560/...</t>
+          <t>images/Dell Precision 5550 - i9 10885H 2,4 GHz - grau (32 GB RAM _ 1 TB SSD _/Dell Precision 5550 - i9 10885H 2,4 GHz - grau (32 GB RAM _ 1 TB SSD __page1_img1.png</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -1117,7 +1117,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>images/Dell_Precision_5560/...</t>
+          <t>images/Dell Precision 5550 - i9 10885H 2,4 GHz - grau (32 GB RAM _ 1 TB SSD _/Dell Precision 5550 - i9 10885H 2,4 GHz - grau (32 GB RAM _ 1 TB SSD __page1_img1.png</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -1191,7 +1191,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>images/Dell_Precision_5560/...</t>
+          <t>images/Dell Precision 5550 - i9 10885H 2,4 GHz - grau (32 GB RAM _ 1 TB SSD _/Dell Precision 5550 - i9 10885H 2,4 GHz - grau (32 GB RAM _ 1 TB SSD __page1_img1.png</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -1265,7 +1265,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>images/Dell_Precision_5550/...</t>
+          <t>images/Dell Precision 5550 - i9 10885H 2,4 GHz - grau (32 GB RAM _ 1 TB SSD _/Dell Precision 5550 - i9 10885H 2,4 GHz - grau (32 GB RAM _ 1 TB SSD __page1_img1.png</t>
         </is>
       </c>
       <c r="C12" t="n">

--- a/output/laptops_vergleich.xlsx
+++ b/output/laptops_vergleich.xlsx
@@ -697,7 +697,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>images/Dell Precision 5550 - i9 10885H 2,4 GHz - grau (32 GB RAM _ 1 TB SSD _/Dell Precision 5550 - i9 10885H 2,4 GHz - grau (32 GB RAM _ 1 TB SSD __page1_img1.png</t>
+          <t>images/Dell Precision 3561 i9 11950H 15 Zoll Notebook Workstation in Brandenburg - Frankfurt (Oder) _ kleinanzeigen.de/Dell Precision 3561 i9 11950H 15 Zoll Notebook Workstation in Brandenburg - Frankfurt (Oder) _ kleinanzeigen.de_page2_img1.png</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -747,7 +747,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>images/Dell Precision 5550 - i9 10885H 2,4 GHz - grau (32 GB RAM _ 1 TB SSD _/Dell Precision 5550 - i9 10885H 2,4 GHz - grau (32 GB RAM _ 1 TB SSD __page1_img1.png</t>
+          <t>images/Dell Precision 7560 _ i7-11850H _ 15.6_ Refurbished/Dell Precision 7560 _ i7-11850H _ 15.6_ Refurbished_page1_img1.png</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -821,7 +821,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>images/Dell Precision 5550 - i9 10885H 2,4 GHz - grau (32 GB RAM _ 1 TB SSD _/Dell Precision 5550 - i9 10885H 2,4 GHz - grau (32 GB RAM _ 1 TB SSD __page1_img1.png</t>
+          <t>images/Dell Precision 7550 - i7-10750H - 15.6_ Laptop2/Dell Precision 7550 - i7-10750H - 15.6_ Laptop2_page1_img1.png</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -895,7 +895,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>images/Dell Latitude 3550 - Leistungsstarker Laptop mit Intel Core i5/Dell Latitude 3550 - Leistungsstarker Laptop mit Intel Core i5_page1_img1.png</t>
+          <t>images/Dell Latitude 5501 _ i7-9850H _ 15.6_ - Refurbished/Dell Latitude 5501 _ i7-9850H _ 15.6_ - Refurbished_page1_img1.png</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -969,7 +969,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>images/Dell Precision 5550 - i9 10885H 2,4 GHz - grau (32 GB RAM _ 1 TB SSD _/Dell Precision 5550 - i9 10885H 2,4 GHz - grau (32 GB RAM _ 1 TB SSD __page1_img1.png</t>
+          <t>images/Dell Precision 7540 _ i9-9880H _ 15.6_ - Refurbished/Dell Precision 7540 _ i9-9880H _ 15.6_ - Refurbished_page1_img1.png</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>images/Dell Precision 5550 - i9 10885H 2,4 GHz - grau (32 GB RAM _ 1 TB SSD _/Dell Precision 5550 - i9 10885H 2,4 GHz - grau (32 GB RAM _ 1 TB SSD __page1_img1.png</t>
+          <t>images/Dell Precision 5560 _ i5-11500H _ 15.6'' - refurbished/Dell Precision 5560 _ i5-11500H _ 15.6'' - refurbished_page1_img1.png</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -1117,7 +1117,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>images/Dell Precision 5550 - i9 10885H 2,4 GHz - grau (32 GB RAM _ 1 TB SSD _/Dell Precision 5550 - i9 10885H 2,4 GHz - grau (32 GB RAM _ 1 TB SSD __page1_img1.png</t>
+          <t>images/Dell Precision 5560 _ i5-11500H _ 15.6'' - refurbished/Dell Precision 5560 _ i5-11500H _ 15.6'' - refurbished_page1_img1.png</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -1191,7 +1191,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>images/Dell Precision 5550 - i9 10885H 2,4 GHz - grau (32 GB RAM _ 1 TB SSD _/Dell Precision 5550 - i9 10885H 2,4 GHz - grau (32 GB RAM _ 1 TB SSD __page1_img1.png</t>
+          <t>images/Dell Precision 5560 _ i5-11500H _ 15.6'' - refurbished/Dell Precision 5560 _ i5-11500H _ 15.6'' - refurbished_page1_img1.png</t>
         </is>
       </c>
       <c r="C11" t="n">

--- a/output/laptops_vergleich.xlsx
+++ b/output/laptops_vergleich.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R12"/>
+  <dimension ref="A1:S12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,6 +451,7 @@
     <col width="12" customWidth="1" min="16" max="16"/>
     <col width="11" customWidth="1" min="17" max="17"/>
     <col width="18" customWidth="1" min="18" max="18"/>
+    <col width="45" customWidth="1" min="19" max="19"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -544,6 +545,11 @@
           <t>Quelle</t>
         </is>
       </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Quelle_URL</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -614,6 +620,11 @@
           <t>refurbed.de</t>
         </is>
       </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>https://www.refurbed.de/dell-latitude-3550</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -686,6 +697,11 @@
       <c r="R3" t="inlineStr">
         <is>
           <t>refurbed.de</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>https://www.refurbed.de/dell-precision-5550</t>
         </is>
       </c>
     </row>
@@ -738,6 +754,11 @@
           <t>kleinanzeigen.de</t>
         </is>
       </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>https://www.kleinanzeigen.de</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -812,6 +833,11 @@
           <t>refurbed.de</t>
         </is>
       </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>https://www.refurbed.de</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -886,6 +912,11 @@
           <t>refurbed.de</t>
         </is>
       </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>https://www.refurbed.de</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -960,6 +991,11 @@
           <t>refurbed.de</t>
         </is>
       </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>https://www.refurbed.de</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1034,6 +1070,11 @@
           <t>refurbed.de</t>
         </is>
       </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>https://www.refurbed.de</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1108,6 +1149,11 @@
           <t>refurbed.de</t>
         </is>
       </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>https://www.refurbed.de</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1182,6 +1228,11 @@
           <t>refurbed.de</t>
         </is>
       </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>https://www.refurbed.de</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1256,6 +1307,11 @@
           <t>refurbed.de</t>
         </is>
       </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>https://www.refurbed.de</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1324,6 +1380,11 @@
       <c r="R12" t="inlineStr">
         <is>
           <t>orbit365.de</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>https://www.orbit365.de</t>
         </is>
       </c>
     </row>
